--- a/biology/Médecine/1655_en_santé_et_médecine/1655_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1655_en_santé_et_médecine/1655_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1655_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1655_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1655 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1655_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1655_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1655_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1655_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,10 +551,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Charles Bouvard (1572-1658) publie Historicae hodiernae medicinae rationalis veritatis[1].
-Antoine Vallot (1594-1671) et Denis Joncquet (1600-1671) font paraître un catalogue des plantes du jardin du Roi, appelé Hortus regius[2],[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Charles Bouvard (1572-1658) publie Historicae hodiernae medicinae rationalis veritatis.
+Antoine Vallot (1594-1671) et Denis Joncquet (1600-1671) font paraître un catalogue des plantes du jardin du Roi, appelé Hortus regius,.</t>
         </is>
       </c>
     </row>
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1655_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1655_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,9 +584,11 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10 septembre : Caspar Bartholin le Jeune (mort en 1738), anatomiste danois[4].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>10 septembre : Caspar Bartholin le Jeune (mort en 1738), anatomiste danois.</t>
         </is>
       </c>
     </row>
@@ -580,7 +598,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1655_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1655_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -598,10 +616,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>23 mars : Pedro Miguel de Heredia, médecin espagnol (° 1579).
-16 octobre : Joseph Delmedigo (né en 1591), médecin, kabbaliste, philosophe, mathématicien et astronome[5].</t>
+16 octobre : Joseph Delmedigo (né en 1591), médecin, kabbaliste, philosophe, mathématicien et astronome.</t>
         </is>
       </c>
     </row>
